--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD47398-CB2B-4B3E-A7E9-5C91483143C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF446B8-7069-4F16-A775-2B4413CBCDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,7 +1124,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF446B8-7069-4F16-A775-2B4413CBCDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F9F32-E588-4CAD-A914-1CBB1138F523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>メモ</t>
   </si>
@@ -201,6 +201,23 @@
   </si>
   <si>
     <t>ウェルカムページ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>問題画面</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>陽さん</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1124,7 +1141,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1192,7 +1209,7 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I2" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1223,7 +1240,7 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I3" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1252,7 +1269,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I4" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1271,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7">
         <v>44509</v>
@@ -1281,7 +1298,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I5" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1310,7 +1327,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I6" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1322,13 +1339,21 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9">
+        <v>0.1</v>
+      </c>
       <c r="I7" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
@@ -1339,9 +1364,15 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F9F32-E588-4CAD-A914-1CBB1138F523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA33C12-2B75-4666-AEE0-62AD1D00DD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>メモ</t>
   </si>
@@ -217,6 +217,55 @@
     <t>陽さん</t>
     <rPh sb="0" eb="1">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>レビュー指摘後内容の盛り込み</t>
+    <rPh sb="4" eb="7">
+      <t>シテキゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>結果画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>11時ごろまでに完成予定</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>11時ごろまでに完成予定</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>カンセイヨテイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1137,11 +1186,11 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1209,11 +1258,11 @@
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I2" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>17</v>
@@ -1246,7 +1295,9 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -1275,7 +1326,9 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -1298,13 +1351,15 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -1327,13 +1382,15 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -1348,17 +1405,23 @@
       <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="7">
+        <v>44509</v>
+      </c>
+      <c r="F7" s="7">
+        <v>44510</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -1371,29 +1434,49 @@
         <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>44509</v>
+      </c>
+      <c r="F8" s="7">
+        <v>44510</v>
+      </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44509</v>
+      </c>
+      <c r="F9" s="7">
+        <v>44510</v>
+      </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9">
+        <v>0.3</v>
+      </c>
       <c r="I9" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
@@ -1404,13 +1487,25 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7">
+        <v>44509</v>
+      </c>
+      <c r="F10" s="7">
+        <v>44510</v>
+      </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9">
+        <v>0.3</v>
+      </c>
       <c r="I10" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA33C12-2B75-4666-AEE0-62AD1D00DD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2B9F8A-BA36-45E3-84EA-D97E18A2EDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>メモ</t>
   </si>
@@ -214,13 +214,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>陽さん</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>レビュー指摘後内容の盛り込み</t>
     <rPh sb="4" eb="7">
       <t>シテキゴ</t>
@@ -266,6 +259,57 @@
     </rPh>
     <rPh sb="8" eb="12">
       <t>カンセイヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ヨウさん</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>内部設計書リクエスト一覧</t>
+    <rPh sb="0" eb="5">
+      <t>ナイブセッケイショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>内設　ウェルカムページ</t>
+    <rPh sb="0" eb="2">
+      <t>ナイセツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>内設　問題画面</t>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>内設　結果画面</t>
+    <rPh sb="0" eb="2">
+      <t>ナイセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1190,7 +1234,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1327,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1358,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1403,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7">
         <v>44509</v>
@@ -1420,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1434,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7">
         <v>44509</v>
@@ -1451,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1459,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -1488,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -1516,13 +1560,25 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7">
+        <v>44510</v>
+      </c>
+      <c r="F11" s="7">
+        <v>44511</v>
+      </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
       <c r="I11" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
@@ -1533,13 +1589,25 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="7">
+        <v>44510</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44511</v>
+      </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
       <c r="I12" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
@@ -1550,13 +1618,25 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>44510</v>
+      </c>
+      <c r="F13" s="7">
+        <v>44511</v>
+      </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
       <c r="I13" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
@@ -1567,13 +1647,25 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7">
+        <v>44510</v>
+      </c>
+      <c r="F14" s="7">
+        <v>44511</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
       <c r="I14" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2B9F8A-BA36-45E3-84EA-D97E18A2EDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9AAD2B-4B96-4119-9DB4-A20CE05B740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>メモ</t>
   </si>
@@ -240,29 +240,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>11時ごろまでに完成予定</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>11時ごろまでに完成予定</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>カンセイヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>作成</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -310,6 +287,59 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>17時には作業開始</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>サギョウカイシ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ランキング実装まで</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>画面切り替え機能追加</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>16時までには完成</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -421,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -453,6 +483,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -480,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -528,6 +571,18 @@
     </xf>
     <xf numFmtId="178" fontId="8" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1234,7 +1289,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1385,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7">
         <v>44509</v>
@@ -1395,14 +1450,14 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1426,14 +1481,14 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I6" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1447,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7">
         <v>44509</v>
@@ -1464,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1478,7 +1533,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E8" s="7">
         <v>44509</v>
@@ -1495,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1509,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7">
         <v>44509</v>
@@ -1519,13 +1574,15 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I9" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1548,26 +1605,28 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7">
         <v>44510</v>
@@ -1583,17 +1642,19 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
@@ -1612,20 +1673,22 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7">
         <v>44510</v>
@@ -1641,17 +1704,19 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -1670,41 +1735,37 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="8"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -1758,28 +1819,54 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7">
+        <v>44519</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44519</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2217,7 +2304,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H51">
+  <conditionalFormatting sqref="H2:H14 H17:H51">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2238,7 +2325,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H51" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H17:H51" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2270,7 +2357,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H51</xm:sqref>
+          <xm:sqref>H2:H14 H17:H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="46" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
@@ -2289,7 +2376,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I2:I51</xm:sqref>
+          <xm:sqref>I2:I14 I17:I51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9AAD2B-4B96-4119-9DB4-A20CE05B740A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B02A20-6E2E-413C-B93D-4D15D78DE43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1289,7 +1289,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1355,9 @@
       <c r="F2" s="7">
         <v>44509</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7">
+        <v>44510</v>
+      </c>
       <c r="H2" s="9">
         <v>1</v>
       </c>
@@ -1386,13 +1388,15 @@
       <c r="F3" s="7">
         <v>44509</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>44510</v>
+      </c>
       <c r="H3" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>20</v>
@@ -1417,13 +1421,15 @@
       <c r="F4" s="7">
         <v>44509</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>44510</v>
+      </c>
       <c r="H4" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I4" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>20</v>
@@ -1450,7 +1456,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I5" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1481,7 +1487,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I6" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1512,7 +1518,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I7" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1543,7 +1549,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I8" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1574,7 +1580,7 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I9" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1605,7 +1611,7 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I10" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1636,7 +1642,7 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B02A20-6E2E-413C-B93D-4D15D78DE43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9AFFA5-3CEF-4A5D-BFA2-517B593E7925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>メモ</t>
   </si>
@@ -291,16 +291,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>17時には作業開始</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>サギョウカイシ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>ランキング実装まで</t>
     <rPh sb="5" eb="7">
       <t>ジッソウ</t>
@@ -340,6 +330,93 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>内設　セキュリティ用</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>index.html</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ウェルカムページの内容考える</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>quiz.html</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイマー機能のロジック</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>バリデーションチェックのロジック</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>問題と空欄のランダム出題機能</t>
+    <rPh sb="3" eb="5">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>シュツダイキノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>問題をランダムにDBから取り出す</t>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>17時には完了</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>19時には完了</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>17時に完了</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>11/12着手</t>
+    <rPh sb="5" eb="7">
+      <t>チャクシュ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1286,17 +1363,16 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="36.109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" style="13" customWidth="1"/>
@@ -1463,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1494,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1525,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1556,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1587,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1618,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1649,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1663,24 +1739,24 @@
         <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7">
         <v>44510</v>
       </c>
       <c r="F12" s="7">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I12" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1694,24 +1770,24 @@
         <v>22</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E13" s="7">
         <v>44510</v>
       </c>
       <c r="F13" s="7">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I13" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1731,55 +1807,83 @@
         <v>44510</v>
       </c>
       <c r="F14" s="7">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I14" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="B15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="17">
+        <v>44510</v>
+      </c>
+      <c r="F15" s="17">
+        <v>44512</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
+      <c r="B16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="17">
+        <v>44510</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1788,15 +1892,23 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1805,75 +1917,67 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="9"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="7">
-        <v>44519</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="8"/>
+      <c r="B20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="7">
-        <v>44519</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="8"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -1974,31 +2078,53 @@
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="7">
+        <v>44519</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="7">
+        <v>44519</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2310,7 +2436,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H14 H17:H51">
+  <conditionalFormatting sqref="H2:H14 H17:H19 H22:H51">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2331,7 +2457,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H17:H51" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H17:H19 H22:H51" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2363,7 +2489,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H14 H17:H51</xm:sqref>
+          <xm:sqref>H2:H14 H17:H19 H22:H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="46" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
@@ -2382,7 +2508,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I2:I14 I17:I51</xm:sqref>
+          <xm:sqref>I2:I14 I17:I19 I22:I51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9AFFA5-3CEF-4A5D-BFA2-517B593E7925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40259A-69EF-4AAC-9A1E-98797ECC0A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>メモ</t>
   </si>
@@ -181,25 +181,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>画面遷移図と画面一覧完成後見直し予定</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ガメンイチラン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>カンセイゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ミナオ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>ウェルカムページ</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -214,22 +195,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>レビュー指摘後内容の盛り込み</t>
-    <rPh sb="4" eb="7">
-      <t>シテキゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>結果画面</t>
     <rPh sb="0" eb="2">
       <t>ケッカ</t>
@@ -324,16 +289,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>16時までには完成</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>内設　セキュリティ用</t>
     <rPh sb="9" eb="10">
       <t>ヨウ</t>
@@ -399,16 +354,6 @@
       <t>ジ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>17時に完了</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
       <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
@@ -528,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -560,19 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -656,9 +588,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1363,10 +1292,10 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1441,9 +1370,7 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -1474,9 +1401,7 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -1507,22 +1432,20 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7">
         <v>44509</v>
@@ -1532,22 +1455,20 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I5" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1563,28 +1484,26 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I6" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="7">
         <v>44509</v>
@@ -1594,22 +1513,20 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I7" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -1625,28 +1542,26 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I8" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="7">
         <v>44509</v>
@@ -1656,22 +1571,20 @@
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I9" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -1687,28 +1600,26 @@
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I10" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="7">
         <v>44510</v>
@@ -1718,14 +1629,14 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I11" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1733,13 +1644,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7">
         <v>44510</v>
@@ -1749,14 +1660,14 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1764,10 +1675,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>16</v>
@@ -1780,14 +1691,14 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="9">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="I13" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,10 +1706,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -1818,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1826,10 +1737,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>16</v>
@@ -1841,10 +1752,12 @@
         <v>44512</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18">
+        <v>0.1</v>
+      </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="19" t="s">
-        <v>43</v>
+      <c r="J15" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1852,10 +1765,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>16</v>
@@ -1863,12 +1776,16 @@
       <c r="E16" s="17">
         <v>44510</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="17">
+        <v>44512</v>
+      </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
       <c r="I16" s="16"/>
-      <c r="J16" s="19" t="s">
-        <v>42</v>
+      <c r="J16" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1876,24 +1793,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>44512</v>
+      </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I17" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1901,24 +1822,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>44512</v>
+      </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9">
+        <v>0.5</v>
+      </c>
       <c r="I18" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1926,21 +1851,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>44512</v>
+      </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1948,21 +1877,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17">
+        <v>44512</v>
+      </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2080,16 +2013,16 @@
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F29" s="7">
         <v>44519</v>
@@ -2105,16 +2038,16 @@
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7">
         <v>44519</v>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40259A-69EF-4AAC-9A1E-98797ECC0A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3272129B-BA02-45D7-98BD-4CD12E6DCAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ColumnTitle1" localSheetId="0">タスク_3[[#Headers],[タスク名]]</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>メモ</t>
   </si>
@@ -289,18 +289,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>内設　セキュリティ用</t>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>index.html</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ウェルカムページの内容考える</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -362,6 +351,42 @@
     <t>11/12着手</t>
     <rPh sb="5" eb="7">
       <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>アクセス制限機能</t>
+    <rPh sb="4" eb="6">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>製造工程で余裕があれば</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>設計書全体の誤字脱字チェック</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ゴジダツジ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -473,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -505,6 +530,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -587,8 +625,23 @@
     <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1064,8 +1117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J44" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
@@ -1289,13 +1342,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1636,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1660,14 +1713,14 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I12" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1691,14 +1744,14 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I13" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1722,14 +1775,14 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="9">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="I14" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1737,7 +1790,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>20</v>
@@ -1752,56 +1805,61 @@
         <v>44512</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="18">
-        <v>0.1</v>
+      <c r="H15" s="21">
+        <v>0.8</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="17">
-        <v>44510</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7">
+        <v>44511</v>
+      </c>
+      <c r="F16" s="7">
         <v>44512</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18">
+      <c r="G16" s="7"/>
+      <c r="H16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16" t="s">
-        <v>39</v>
+      <c r="J16" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7">
+        <v>44511</v>
+      </c>
       <c r="F17" s="7">
         <v>44512</v>
       </c>
@@ -1814,135 +1872,174 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7">
+        <v>44511</v>
+      </c>
       <c r="F18" s="7">
         <v>44512</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>19</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17">
+        <v>44511</v>
+      </c>
+      <c r="F19" s="17">
+        <v>44512</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7">
+      <c r="J20" s="23">
         <v>44512</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17">
-        <v>44512</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="22">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="7">
+        <v>44519</v>
+      </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="8"/>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="7">
+        <v>44519</v>
+      </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="8"/>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1956,7 +2053,7 @@
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1970,7 +2067,7 @@
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1984,7 +2081,7 @@
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1997,9 +2094,7 @@
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="8"/>
@@ -2012,46 +2107,25 @@
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="7">
-        <v>44519</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I29" s="11"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="7">
-        <v>44519</v>
-      </c>
+      <c r="A30" s="6">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="9"/>
       <c r="I30" s="11">
@@ -2062,7 +2136,7 @@
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2071,12 +2145,15 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2090,7 +2167,7 @@
     </row>
     <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2104,7 +2181,7 @@
     </row>
     <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2118,7 +2195,7 @@
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2132,7 +2209,7 @@
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2146,7 +2223,7 @@
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2160,7 +2237,7 @@
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2174,10 +2251,10 @@
     </row>
     <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="8"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -2188,7 +2265,7 @@
     </row>
     <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="8"/>
@@ -2197,15 +2274,12 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="8"/>
@@ -2222,7 +2296,7 @@
     </row>
     <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="8"/>
@@ -2239,7 +2313,7 @@
     </row>
     <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="8"/>
@@ -2256,21 +2330,24 @@
     </row>
     <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="11"/>
+      <c r="I44" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2284,7 +2361,7 @@
     </row>
     <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2298,7 +2375,7 @@
     </row>
     <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2312,7 +2389,7 @@
     </row>
     <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2326,7 +2403,7 @@
     </row>
     <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2340,7 +2417,7 @@
     </row>
     <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2354,7 +2431,7 @@
     </row>
     <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2366,11 +2443,25 @@
       <c r="I51" s="11"/>
       <c r="J51" s="8"/>
     </row>
+    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="8"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H14 H17:H19 H22:H51">
-    <cfRule type="dataBar" priority="85">
+  <conditionalFormatting sqref="H2:H52">
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2383,6 +2474,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="8"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{48458AA5-F4EA-419C-8EF4-7E7B19B81531}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの名前を入力します" sqref="B1:D1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクに関するメモを入力します" sqref="J1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -2390,7 +2495,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H17:H19 H22:H51" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H16:H18 H22:H52" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2422,10 +2527,27 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H14 H17:H19 H22:H51</xm:sqref>
+          <xm:sqref>H2:H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
+          <x14:cfRule type="dataBar" id="{48458AA5-F4EA-419C-8EF4-7E7B19B81531}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="8"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H22:H23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="48" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2441,7 +2563,26 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I2:I14 I17:I19 I22:I51</xm:sqref>
+          <xm:sqref>I24:I52 I16:I18 I2:I14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{DD25285B-E35C-4809-A137-41F00374BEAC}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I22:I23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3272129B-BA02-45D7-98BD-4CD12E6DCAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27577C9A-5515-4C2D-AC65-E3D2CC60F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ColumnTitle1" localSheetId="0">タスク_3[[#Headers],[タスク名]]</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>メモ</t>
   </si>
@@ -305,16 +305,6 @@
   </si>
   <si>
     <t>バリデーションチェックのロジック</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>問題と空欄のランダム出題機能</t>
-    <rPh sb="3" eb="5">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>シュツダイキノウ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1117,8 +1107,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J44" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
@@ -1342,13 +1332,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1689,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1751,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1782,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1790,7 +1780,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>20</v>
@@ -1810,7 +1800,7 @@
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1821,7 +1811,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>21</v>
@@ -1841,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1872,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1896,52 +1886,45 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="17">
-        <v>44511</v>
-      </c>
-      <c r="F19" s="17">
-        <v>44512</v>
-      </c>
-      <c r="G19" s="17"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="21">
         <v>0</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="8" t="s">
-        <v>37</v>
+      <c r="I19" s="22">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="23">
+        <v>44512</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>20</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -1952,41 +1935,51 @@
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="23">
-        <v>44512</v>
-      </c>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21">
+      <c r="E21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44519</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>28</v>
@@ -2003,43 +1996,26 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="7">
-        <v>44519</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2053,7 +2029,7 @@
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2067,7 +2043,7 @@
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2080,9 +2056,7 @@
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>27</v>
-      </c>
+      <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8"/>
@@ -2106,7 +2080,9 @@
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6">
+        <v>30</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="8"/>
@@ -2114,12 +2090,15 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2136,7 +2115,7 @@
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2145,15 +2124,12 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I31" s="11"/>
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2167,7 +2143,7 @@
     </row>
     <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2181,7 +2157,7 @@
     </row>
     <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2195,7 +2171,7 @@
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2209,7 +2185,7 @@
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2223,7 +2199,7 @@
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2237,7 +2213,7 @@
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2251,10 +2227,10 @@
     </row>
     <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -2265,7 +2241,7 @@
     </row>
     <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="8"/>
@@ -2274,12 +2250,15 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="8"/>
@@ -2296,7 +2275,7 @@
     </row>
     <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="8"/>
@@ -2313,7 +2292,7 @@
     </row>
     <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="8"/>
@@ -2330,24 +2309,21 @@
     </row>
     <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
-        <v>44</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="8"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I44" s="11"/>
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2361,7 +2337,7 @@
     </row>
     <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2375,7 +2351,7 @@
     </row>
     <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2389,7 +2365,7 @@
     </row>
     <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2403,7 +2379,7 @@
     </row>
     <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2417,7 +2393,7 @@
     </row>
     <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2431,7 +2407,7 @@
     </row>
     <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2443,24 +2419,10 @@
       <c r="I51" s="11"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="8"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H52">
+  <conditionalFormatting sqref="H2:H51">
     <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2474,7 +2436,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
+  <conditionalFormatting sqref="H21:H22">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2495,7 +2457,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H16:H18 H22:H52" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H16:H18 H21:H51" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2527,7 +2489,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H52</xm:sqref>
+          <xm:sqref>H2:H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{48458AA5-F4EA-419C-8EF4-7E7B19B81531}">
@@ -2544,7 +2506,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22:H23</xm:sqref>
+          <xm:sqref>H21:H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="48" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
@@ -2563,7 +2525,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I24:I52 I16:I18 I2:I14</xm:sqref>
+          <xm:sqref>I23:I51 I16:I18 I2:I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{DD25285B-E35C-4809-A137-41F00374BEAC}">
@@ -2582,7 +2544,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I22:I23</xm:sqref>
+          <xm:sqref>I21:I22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27577C9A-5515-4C2D-AC65-E3D2CC60F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78AB45-7B3D-4E59-A3BB-4ECFE16B739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ColumnTitle1" localSheetId="0">タスク_3[[#Headers],[タスク名]]</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$48</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>メモ</t>
   </si>
@@ -285,35 +285,6 @@
     <t>未定</t>
     <rPh sb="0" eb="2">
       <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>index.html</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>quiz.html</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>タイマー機能のロジック</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>バリデーションチェックのロジック</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>問題をランダムにDBから取り出す</t>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1107,8 +1078,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J40" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J40" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
@@ -1332,13 +1303,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1679,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1703,14 +1674,14 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1741,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1772,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1780,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>20</v>
@@ -1800,208 +1771,160 @@
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
+        <v>20</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7">
-        <v>44511</v>
-      </c>
-      <c r="F16" s="7">
-        <v>44512</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="22">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>36</v>
+      <c r="J16" s="23">
+        <v>44512</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7">
-        <v>44511</v>
-      </c>
-      <c r="F17" s="7">
-        <v>44512</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="B17" s="16"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="7">
-        <v>44511</v>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F18" s="7">
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="I18" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J18" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21">
+      <c r="E19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="7">
+        <v>44519</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="9">
         <v>0</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="23">
-        <v>44512</v>
+      <c r="J19" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>21</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7">
-        <v>44519</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="7">
-        <v>44519</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2014,9 +1937,7 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>25</v>
-      </c>
+      <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8"/>
@@ -2028,9 +1949,7 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>26</v>
-      </c>
+      <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8"/>
@@ -2043,7 +1962,7 @@
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2052,11 +1971,16 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6">
+        <v>31</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8"/>
@@ -2064,11 +1988,16 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>32</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="8"/>
@@ -2081,7 +2010,7 @@
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2090,15 +2019,12 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I29" s="11"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2107,15 +2033,12 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I30" s="11"/>
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2129,7 +2052,7 @@
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2143,7 +2066,7 @@
     </row>
     <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2157,7 +2080,7 @@
     </row>
     <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2171,7 +2094,7 @@
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2185,10 +2108,10 @@
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>37</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2199,35 +2122,41 @@
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="11"/>
+      <c r="I38" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="8"/>
@@ -2236,12 +2165,15 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="11"/>
+      <c r="I39" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="8"/>
@@ -2258,58 +2190,49 @@
     </row>
     <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
-        <v>42</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="8"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I41" s="11"/>
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
-        <v>43</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="8"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I42" s="11"/>
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
-        <v>44</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="8"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I43" s="11"/>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2323,7 +2246,7 @@
     </row>
     <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2337,7 +2260,7 @@
     </row>
     <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2351,7 +2274,7 @@
     </row>
     <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2365,7 +2288,7 @@
     </row>
     <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2377,52 +2300,10 @@
       <c r="I48" s="11"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>50</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="8"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H51">
+  <conditionalFormatting sqref="H2:H48">
     <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2436,7 +2317,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H22">
+  <conditionalFormatting sqref="H18:H19">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2457,7 +2338,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H16:H18 H21:H51" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H18:H48" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2489,7 +2370,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H51</xm:sqref>
+          <xm:sqref>H2:H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{48458AA5-F4EA-419C-8EF4-7E7B19B81531}">
@@ -2506,7 +2387,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H21:H22</xm:sqref>
+          <xm:sqref>H18:H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="48" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
@@ -2525,7 +2406,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I23:I51 I16:I18 I2:I14</xm:sqref>
+          <xm:sqref>I20:I48 I2:I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{DD25285B-E35C-4809-A137-41F00374BEAC}">
@@ -2544,7 +2425,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I21:I22</xm:sqref>
+          <xm:sqref>I18:I19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\it研修学习期间的成果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78AB45-7B3D-4E59-A3BB-4ECFE16B739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C0B1EC-FA36-4532-ACDC-736A6E422ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ColumnTitle1" localSheetId="0">タスク_3[[#Headers],[タスク名]]</definedName>
     <definedName name="ColumnTitle1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$J$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>メモ</t>
   </si>
@@ -289,43 +287,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>17時には完了</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>19時には完了</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>11/12着手</t>
-    <rPh sb="5" eb="7">
-      <t>チャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>アクセス制限機能</t>
-    <rPh sb="4" eb="6">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>製造工程で余裕があれば</t>
     <rPh sb="0" eb="2">
       <t>セイゾウ</t>
@@ -348,6 +309,48 @@
     </rPh>
     <rPh sb="6" eb="10">
       <t>ゴジダツジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sessionでアクセス制限機能</t>
+    <rPh sb="12" eb="14">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>htmlファイルの作り</t>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベースのデータ準備</t>
+    <rPh sb="10" eb="12">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ヨウ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>苑さん</t>
+    <rPh sb="0" eb="1">
+      <t>ソノ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>製造スケジュール作成</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -361,7 +364,7 @@
     <numFmt numFmtId="177" formatCode="&quot;完了&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +435,10 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック Medium"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -459,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -504,6 +511,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -604,16 +624,34 @@
     <xf numFmtId="56" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="パーセント" xfId="4" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="完了" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="日付" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標準 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="表のテキスト" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="日付" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="完了" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1078,8 +1116,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J40" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
-  <autoFilter ref="C1:J40" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="タスク_3" displayName="タスク_3" ref="C1:J48" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="C1:J48" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タスク名" dataDxfId="7" dataCellStyle="表のテキスト"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="担当" dataDxfId="6" dataCellStyle="表のテキスト"/>
@@ -1303,16 +1341,16 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.88671875" style="5" customWidth="1"/>
     <col min="2" max="3" width="36.109375" style="5" customWidth="1"/>
@@ -1325,7 +1363,7 @@
     <col min="12" max="16384" width="8.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="26.4">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -1355,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="32.4" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1386,7 +1424,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1417,7 +1455,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1448,7 +1486,7 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1477,7 +1515,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1506,7 +1544,7 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1535,7 +1573,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1564,7 +1602,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1593,7 +1631,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1622,7 +1660,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1643,17 +1681,15 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I11" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1674,17 +1710,15 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1705,17 +1739,15 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I13" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1736,22 +1768,20 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I14" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>20</v>
@@ -1767,19 +1797,17 @@
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="21">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19" t="s">
@@ -1799,204 +1827,258 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21">
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="22">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="17">
+        <v>44515</v>
+      </c>
+      <c r="F18" s="17">
+        <v>44515</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27">
         <v>0</v>
       </c>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7">
-        <v>44519</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9">
+      <c r="I18" s="28">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="17">
+        <v>44515</v>
+      </c>
+      <c r="F19" s="17">
+        <v>44516</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="17">
+        <v>44515</v>
+      </c>
+      <c r="F20" s="17">
+        <v>44516</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21">
+        <v>0</v>
+      </c>
+      <c r="I25" s="22">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="7">
+        <v>44519</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F27" s="7">
         <v>44519</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9">
+      <c r="G27" s="7"/>
+      <c r="H27" s="9">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I27" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="J27" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="6">
         <v>27</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>32</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2008,9 +2090,9 @@
       <c r="I28" s="11"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2022,9 +2104,9 @@
       <c r="I29" s="11"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2036,9 +2118,9 @@
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2050,9 +2132,9 @@
       <c r="I31" s="11"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2064,9 +2146,9 @@
       <c r="I32" s="11"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2078,9 +2160,9 @@
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2089,12 +2171,15 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="11"/>
+      <c r="I34" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2103,15 +2188,18 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="11"/>
+      <c r="I35" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="6">
-        <v>40</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="8"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2120,77 +2208,65 @@
       <c r="I36" s="11"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="6">
-        <v>41</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="8"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I37" s="11"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="6">
-        <v>42</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="8"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I38" s="11"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="6">
-        <v>43</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="8"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I39" s="11"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="6">
-        <v>44</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="8"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="6">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2202,9 +2278,9 @@
       <c r="I41" s="11"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="6">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2216,9 +2292,9 @@
       <c r="I42" s="11"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="6">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2230,12 +2306,12 @@
       <c r="I43" s="11"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="6">
-        <v>48</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -2244,66 +2320,190 @@
       <c r="I44" s="11"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="6">
-        <v>49</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="11"/>
+      <c r="I45" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="6">
-        <v>50</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="11"/>
+      <c r="I46" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="6">
-        <v>49</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="11"/>
+      <c r="I47" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="6">
-        <v>50</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="11"/>
+      <c r="I48" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
       <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="6">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="6">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="6">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="6">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="6">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="6">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="6">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="6">
+        <v>50</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H48">
+  <conditionalFormatting sqref="H2:H56">
     <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2317,7 +2517,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
+  <conditionalFormatting sqref="H26:H27">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2338,7 +2538,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H18:H48" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H26:H56 H2:H14" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2370,7 +2570,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H48</xm:sqref>
+          <xm:sqref>H2:H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{48458AA5-F4EA-419C-8EF4-7E7B19B81531}">
@@ -2387,7 +2587,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H18:H19</xm:sqref>
+          <xm:sqref>H26:H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="48" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
@@ -2406,7 +2606,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I20:I48 I2:I14</xm:sqref>
+          <xm:sqref>I28:I56 I2:I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{DD25285B-E35C-4809-A137-41F00374BEAC}">
@@ -2425,7 +2625,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I18:I19</xm:sqref>
+          <xm:sqref>I26:I27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
+++ b/YSteam開発資料まとめ/スケジュール管理_YS .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE78AB45-7B3D-4E59-A3BB-4ECFE16B739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F42E7AC-AE3D-4D8A-BCDF-52AF474E4936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>メモ</t>
   </si>
@@ -289,33 +289,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>17時には完了</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>19時には完了</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>11/12着手</t>
-    <rPh sb="5" eb="7">
-      <t>チャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>アクセス制限機能</t>
     <rPh sb="4" eb="6">
       <t>セイゲン</t>
@@ -348,6 +321,29 @@
     </rPh>
     <rPh sb="6" eb="10">
       <t>ゴジダツジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>レビュー後内容はこちらで吸収</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>セッションでアクセス制限機能</t>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -531,7 +527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -603,6 +599,9 @@
     </xf>
     <xf numFmtId="56" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1306,10 +1305,10 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1643,15 +1642,13 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I11" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1674,15 +1671,13 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1705,15 +1700,13 @@
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I13" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1736,22 +1729,20 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I14" s="11">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>20</v>
@@ -1767,19 +1758,17 @@
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>20</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19" t="s">
@@ -1789,28 +1778,32 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I16" s="22">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="23">
-        <v>44512</v>
+      <c r="J16" s="23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>21</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="21">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I17" s="22">
         <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
@@ -1819,66 +1812,28 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7">
-        <v>44519</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7">
-        <v>44519</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -1937,28 +1892,66 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7">
+        <v>44519</v>
+      </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="8"/>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="7">
+        <v>44519</v>
+      </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="8"/>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <f>--(タスク_3[[#This Row],[達成率]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
@@ -2303,7 +2296,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="H2:H48">
+  <conditionalFormatting sqref="H2:H17 H20:H48">
     <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2317,7 +2310,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
+  <conditionalFormatting sqref="H24:H25">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2338,7 +2331,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 ～ 100 の値を入力します。100 は 100% 完了を示します。100% 完了したタスクの列 F の右にアイコンが生成されます" sqref="H1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの期日を入力します" sqref="G1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この列には、各タスクの開始日を入力します" sqref="E1:F1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H18:H48" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0 から 100 までの値のみが有効です。この範囲内の値を入力するには [再試行] を押します。0 は、開始前のタスクを示します。100 は、完了したタスクを示します" sqref="H2:H14 H20:H48" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2370,7 +2363,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H48</xm:sqref>
+          <xm:sqref>H2:H17 H20:H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{48458AA5-F4EA-419C-8EF4-7E7B19B81531}">
@@ -2387,7 +2380,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H18:H19</xm:sqref>
+          <xm:sqref>H24:H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="48" id="{3BD222B5-EE45-4994-9E49-2F7D9A8F7A54}">
@@ -2406,7 +2399,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I20:I48 I2:I14</xm:sqref>
+          <xm:sqref>I20:I23 I26:I48 I2:I14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{DD25285B-E35C-4809-A137-41F00374BEAC}">
@@ -2425,7 +2418,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I18:I19</xm:sqref>
+          <xm:sqref>I24:I25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
